--- a/Messages.xlsx
+++ b/Messages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My DATA\My Code\GitHub\whatsapp-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C5D922-E4CE-412B-94E5-1525E7438568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9160ABB-4020-4127-AFC4-83BA5037CD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="2205" windowWidth="32685" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -39,34 +39,55 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>CIE1</t>
+  </si>
+  <si>
+    <t>CIE2</t>
+  </si>
+  <si>
+    <t>CIE3</t>
+  </si>
+  <si>
+    <t>Quiz</t>
+  </si>
+  <si>
+    <t>AAT</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Eligibility</t>
+  </si>
+  <si>
+    <t>Success: Message sent</t>
+  </si>
+  <si>
     <t>RPA</t>
   </si>
   <si>
-    <t>CIE1</t>
-  </si>
-  <si>
-    <t>CIE2</t>
-  </si>
-  <si>
-    <t>CIE3</t>
-  </si>
-  <si>
-    <t>Quiz</t>
-  </si>
-  <si>
-    <t>AAT</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Eligibility</t>
-  </si>
-  <si>
-    <t>Success: Message sent</t>
-  </si>
-  <si>
-    <t>ABC</t>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Error: Contact not found</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>YYY</t>
+  </si>
+  <si>
+    <t>ZZZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -425,18 +446,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="210.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" style="1" customWidth="1"/>
@@ -448,57 +469,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1">
-        <v>1234567890</v>
+        <v>1111111111</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>CONCATENATE("Hi ", A2, "![d(shift)k(enter)u(shift)]Your marks are:[d(shift)k(enter)u(shift)]CIE1: ", F2,  ", CIE2: ", G2,  ", CIE3: ", H2, "[d(shift)k(enter)u(shift)]Quiz: ", I2, ", AAT: ", J2, "[d(shift)k(enter)u(shift)]*Total: ", K2, "*", "[d(shift)k(enter)u(shift)]You are ", L2, " for the exam.")</f>
-        <v>Hi ABC![d(shift)k(enter)u(shift)]Your marks are:[d(shift)k(enter)u(shift)]CIE1: 20, CIE2: 20, CIE3: 20[d(shift)k(enter)u(shift)]Quiz: 5, AAT: 5[d(shift)k(enter)u(shift)]*Total: 50*[d(shift)k(enter)u(shift)]You are Eligible for the exam.</v>
+        <f>CONCATENATE("Hi ", A2, "![d(shift)k(enter)u(shift)]Your ", E2," marks are:[d(shift)k(enter)u(shift)]CIE1: ", F2,  ", CIE2: ", G2,  ", CIE3: ", H2, "[d(shift)k(enter)u(shift)]Quiz: ", I2, ", AAT: ", J2, "[d(shift)k(enter)u(shift)]*Total: ", K2, "*", "[d(shift)k(enter)u(shift)]You are ", L2, " for the exam.")</f>
+        <v>Hi AAA![d(shift)k(enter)u(shift)]Your RPA marks are:[d(shift)k(enter)u(shift)]CIE1: 20, CIE2: 20, CIE3: 20[d(shift)k(enter)u(shift)]Quiz: 5, AAT: 5[d(shift)k(enter)u(shift)]*Total: 50*[d(shift)k(enter)u(shift)]You are Eligible for the exam.</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" s="1">
         <v>20</v>
       </c>
@@ -515,11 +539,175 @@
         <v>5</v>
       </c>
       <c r="K2" s="1">
-        <f>SUM(F2:J2)-MIN(F2:H2)</f>
+        <f t="shared" ref="K2:K6" si="0">SUM(F2:J2)-MIN(F2:H2)</f>
         <v>50</v>
       </c>
       <c r="L2" s="1" t="str">
-        <f>IF(K2&gt;=25, "Eligible", "Not Eligible")</f>
+        <f t="shared" ref="L2:L6" si="1">IF(K2&gt;=25, "Eligible", "Not Eligible")</f>
+        <v>Eligible</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2222222222</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>CONCATENATE("Hi ", A3, "![d(shift)k(enter)u(shift)]Your ", E3," marks are:[d(shift)k(enter)u(shift)]CIE1: ", F3,  ", CIE2: ", G3,  ", CIE3: ", H3, "[d(shift)k(enter)u(shift)]Quiz: ", I3, ", AAT: ", J3, "[d(shift)k(enter)u(shift)]*Total: ", K3, "*", "[d(shift)k(enter)u(shift)]You are ", L3, " for the exam.")</f>
+        <v>Hi BBB![d(shift)k(enter)u(shift)]Your RPA marks are:[d(shift)k(enter)u(shift)]CIE1: 19, CIE2: 18, CIE3: 19[d(shift)k(enter)u(shift)]Quiz: 5, AAT: 4[d(shift)k(enter)u(shift)]*Total: 47*[d(shift)k(enter)u(shift)]You are Eligible for the exam.</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Eligible</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" ref="C4:C6" si="2">CONCATENATE("Hi ", A4, "![d(shift)k(enter)u(shift)]Your ", E4," marks are:[d(shift)k(enter)u(shift)]CIE1: ", F4,  ", CIE2: ", G4,  ", CIE3: ", H4, "[d(shift)k(enter)u(shift)]Quiz: ", I4, ", AAT: ", J4, "[d(shift)k(enter)u(shift)]*Total: ", K4, "*", "[d(shift)k(enter)u(shift)]You are ", L4, " for the exam.")</f>
+        <v>Hi Unknown![d(shift)k(enter)u(shift)]Your RPA marks are:[d(shift)k(enter)u(shift)]CIE1: 5, CIE2: 6, CIE3: 7[d(shift)k(enter)u(shift)]Quiz: 2, AAT: 3[d(shift)k(enter)u(shift)]*Total: 18*[d(shift)k(enter)u(shift)]You are Not Eligible for the exam.</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1">
+        <f>SUM(F4:J4)-MIN(F4:H4)</f>
+        <v>18</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f>IF(K4&gt;=25, "Eligible", "Not Eligible")</f>
+        <v>Not Eligible</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3333333333</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Hi YYY![d(shift)k(enter)u(shift)]Your RPA marks are:[d(shift)k(enter)u(shift)]CIE1: 15, CIE2: 14, CIE3: 15[d(shift)k(enter)u(shift)]Quiz: 4, AAT: 4.5[d(shift)k(enter)u(shift)]*Total: 38.5*[d(shift)k(enter)u(shift)]You are Eligible for the exam.</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
+        <v>38.5</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Eligible</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4444444444</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Hi ZZZ![d(shift)k(enter)u(shift)]Your RPA marks are:[d(shift)k(enter)u(shift)]CIE1: 18, CIE2: 16, CIE3: 17[d(shift)k(enter)u(shift)]Quiz: 3.5, AAT: 4.5[d(shift)k(enter)u(shift)]*Total: 43*[d(shift)k(enter)u(shift)]You are Eligible for the exam.</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>Eligible</v>
       </c>
     </row>
